--- a/reports/_BAN_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_37_.xlsx
+++ b/reports/_BAN_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_37_.xlsx
@@ -1555,7 +1555,7 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-10-02T18:58:06.892</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0"/>

--- a/reports/_BAN_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_37_.xlsx
+++ b/reports/_BAN_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-12-03_37_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:1</t>
+          <t>Total number of containers:1</t>
         </is>
       </c>
     </row>
